--- a/Change_Password/src/main/java/DataSheet/ChangePassword.xlsx
+++ b/Change_Password/src/main/java/DataSheet/ChangePassword.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
   <si>
     <t>TC_Description</t>
   </si>
@@ -283,7 +283,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -299,6 +299,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -729,7 +743,7 @@
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="109" t="s">
         <v>23</v>
       </c>
     </row>
@@ -775,7 +789,7 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="97" t="s">
         <v>23</v>
       </c>
     </row>
@@ -786,7 +800,7 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="99" t="s">
         <v>23</v>
       </c>
     </row>
@@ -797,7 +811,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="101" t="s">
         <v>23</v>
       </c>
     </row>
@@ -808,7 +822,7 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="103" t="s">
         <v>23</v>
       </c>
     </row>
@@ -819,7 +833,7 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="105" t="s">
         <v>23</v>
       </c>
     </row>
@@ -830,7 +844,7 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="107" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Change_Password/src/main/java/DataSheet/ChangePassword.xlsx
+++ b/Change_Password/src/main/java/DataSheet/ChangePassword.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
   <si>
     <t>TC_Description</t>
   </si>
@@ -283,7 +283,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -299,6 +299,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -743,7 +757,7 @@
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="123" t="s">
         <v>23</v>
       </c>
     </row>
@@ -789,7 +803,7 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="111" t="s">
         <v>23</v>
       </c>
     </row>
@@ -800,7 +814,7 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="113" t="s">
         <v>23</v>
       </c>
     </row>
@@ -811,7 +825,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="115" t="s">
         <v>23</v>
       </c>
     </row>
@@ -822,7 +836,7 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="117" t="s">
         <v>23</v>
       </c>
     </row>
@@ -833,7 +847,7 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="119" t="s">
         <v>23</v>
       </c>
     </row>
@@ -844,7 +858,7 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="121" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Change_Password/src/main/java/DataSheet/ChangePassword.xlsx
+++ b/Change_Password/src/main/java/DataSheet/ChangePassword.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t>TC_Description</t>
   </si>
@@ -283,7 +283,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -299,6 +299,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -757,7 +785,7 @@
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="151" t="s">
         <v>23</v>
       </c>
     </row>
@@ -803,7 +831,7 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="139" t="s">
         <v>23</v>
       </c>
     </row>
@@ -814,7 +842,7 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="141" t="s">
         <v>23</v>
       </c>
     </row>
@@ -825,7 +853,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="143" t="s">
         <v>23</v>
       </c>
     </row>
@@ -836,7 +864,7 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="145" t="s">
         <v>23</v>
       </c>
     </row>
@@ -847,7 +875,7 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="147" t="s">
         <v>23</v>
       </c>
     </row>
@@ -858,7 +886,7 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="149" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Change_Password/src/main/java/DataSheet/ChangePassword.xlsx
+++ b/Change_Password/src/main/java/DataSheet/ChangePassword.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="25">
   <si>
     <t>TC_Description</t>
   </si>
@@ -283,7 +283,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -299,6 +299,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -785,7 +799,7 @@
       <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="151" t="s">
+      <c r="E2" s="165" t="s">
         <v>23</v>
       </c>
     </row>
@@ -831,7 +845,7 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="153" t="s">
         <v>23</v>
       </c>
     </row>
@@ -842,7 +856,7 @@
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="155" t="s">
         <v>23</v>
       </c>
     </row>
@@ -853,7 +867,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="157" t="s">
         <v>23</v>
       </c>
     </row>
@@ -864,7 +878,7 @@
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="145" t="s">
+      <c r="C5" s="159" t="s">
         <v>23</v>
       </c>
     </row>
@@ -875,7 +889,7 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="161" t="s">
         <v>23</v>
       </c>
     </row>
@@ -886,7 +900,7 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="163" t="s">
         <v>23</v>
       </c>
     </row>
